--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>SDLC</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>3. Роли людей в проекте</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Создание / анализ требований</t>
   </si>
 </sst>
 </file>
@@ -427,9 +433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -491,84 +499,92 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SDLC</t>
   </si>
@@ -40,21 +40,12 @@
     <t>Тест Кесы</t>
   </si>
   <si>
-    <t>Посл. Занятие :) Ура</t>
-  </si>
-  <si>
-    <t>Тестирование карандаша</t>
-  </si>
-  <si>
     <t>Протестить "Test this application"</t>
   </si>
   <si>
     <t>Управление требованиями, UML</t>
   </si>
   <si>
-    <t>Работа с Mantis. Описание дефектов</t>
-  </si>
-  <si>
     <t>Написание ТК</t>
   </si>
   <si>
@@ -70,40 +61,37 @@
     <t>Практика</t>
   </si>
   <si>
-    <t>ДЗ</t>
-  </si>
-  <si>
-    <t>Видос про Agile</t>
-  </si>
-  <si>
-    <t>Вопросы</t>
-  </si>
-  <si>
-    <t>1. Разные ОС</t>
-  </si>
-  <si>
-    <t>2. Разные языки программирования</t>
-  </si>
-  <si>
-    <t>3. Роли людей в проекте</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
     <t>Создание / анализ требований</t>
+  </si>
+  <si>
+    <t>Описание дефектов</t>
+  </si>
+  <si>
+    <t>Занятие</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,162 +424,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>SDLC</t>
   </si>
   <si>
-    <t>Доклады (SDLC)</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -43,15 +40,9 @@
     <t>Протестить "Test this application"</t>
   </si>
   <si>
-    <t>Управление требованиями, UML</t>
-  </si>
-  <si>
     <t>Написание ТК</t>
   </si>
   <si>
-    <t>Составить UML-диаграмму</t>
-  </si>
-  <si>
     <t>Практика по SQL</t>
   </si>
   <si>
@@ -71,6 +62,18 @@
   </si>
   <si>
     <t>Занятие</t>
+  </si>
+  <si>
+    <t>SQL injection, Web-services, UML</t>
+  </si>
+  <si>
+    <t>Составить UseCase диаграмму</t>
+  </si>
+  <si>
+    <t>Доклады (SDLC) / SQL</t>
+  </si>
+  <si>
+    <t>Сделать доклады</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,13 +442,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -478,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,10 +494,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,10 +505,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,13 +518,19 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +538,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
